--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4043423333333334</v>
+        <v>0.353476</v>
       </c>
       <c r="N2">
-        <v>1.213027</v>
+        <v>1.060428</v>
       </c>
       <c r="O2">
-        <v>0.08238992852068679</v>
+        <v>0.07277959798226569</v>
       </c>
       <c r="P2">
-        <v>0.08238992852068677</v>
+        <v>0.07277959798226567</v>
       </c>
       <c r="Q2">
-        <v>4.015383135982111</v>
+        <v>3.510247264177333</v>
       </c>
       <c r="R2">
-        <v>36.138448223839</v>
+        <v>31.592225377596</v>
       </c>
       <c r="S2">
-        <v>0.07970022140596339</v>
+        <v>0.07040363036080503</v>
       </c>
       <c r="T2">
-        <v>0.07970022140596336</v>
+        <v>0.07040363036080502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>4.074073</v>
       </c>
       <c r="O3">
-        <v>0.276714849099039</v>
+        <v>0.2796129441040817</v>
       </c>
       <c r="P3">
-        <v>0.276714849099039</v>
+        <v>0.2796129441040817</v>
       </c>
       <c r="Q3">
         <v>13.48606751454011</v>
@@ -632,10 +632,10 @@
         <v>121.374607630861</v>
       </c>
       <c r="S3">
-        <v>0.2676811976353844</v>
+        <v>0.2704846812371383</v>
       </c>
       <c r="T3">
-        <v>0.2676811976353844</v>
+        <v>0.2704846812371383</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>9.435901000000001</v>
       </c>
       <c r="O4">
-        <v>0.6408952223802743</v>
+        <v>0.6476074579136527</v>
       </c>
       <c r="P4">
-        <v>0.6408952223802743</v>
+        <v>0.6476074579136526</v>
       </c>
       <c r="Q4">
         <v>31.23488409425078</v>
@@ -694,10 +694,10 @@
         <v>281.113956848257</v>
       </c>
       <c r="S4">
-        <v>0.6199725141029435</v>
+        <v>0.626465621546348</v>
       </c>
       <c r="T4">
-        <v>0.6199725141029435</v>
+        <v>0.6264656215463479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,13 +720,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3351376666666666</v>
+        <v>0.3351376666666667</v>
       </c>
       <c r="H5">
         <v>1.005413</v>
       </c>
       <c r="I5">
-        <v>0.03264606685570878</v>
+        <v>0.03264606685570879</v>
       </c>
       <c r="J5">
         <v>0.03264606685570878</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4043423333333334</v>
+        <v>0.353476</v>
       </c>
       <c r="N5">
-        <v>1.213027</v>
+        <v>1.060428</v>
       </c>
       <c r="O5">
-        <v>0.08238992852068679</v>
+        <v>0.07277959798226569</v>
       </c>
       <c r="P5">
-        <v>0.08238992852068677</v>
+        <v>0.07277959798226567</v>
       </c>
       <c r="Q5">
-        <v>0.1355103461278889</v>
+        <v>0.1184631218626667</v>
       </c>
       <c r="R5">
-        <v>1.219593115151</v>
+        <v>1.066168096764</v>
       </c>
       <c r="S5">
-        <v>0.002689707114723409</v>
+        <v>0.002375967621460654</v>
       </c>
       <c r="T5">
-        <v>0.002689707114723408</v>
+        <v>0.002375967621460653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,13 +782,13 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3351376666666666</v>
+        <v>0.3351376666666667</v>
       </c>
       <c r="H6">
         <v>1.005413</v>
       </c>
       <c r="I6">
-        <v>0.03264606685570878</v>
+        <v>0.03264606685570879</v>
       </c>
       <c r="J6">
         <v>0.03264606685570878</v>
@@ -806,22 +806,22 @@
         <v>4.074073</v>
       </c>
       <c r="O6">
-        <v>0.276714849099039</v>
+        <v>0.2796129441040817</v>
       </c>
       <c r="P6">
-        <v>0.276714849099039</v>
+        <v>0.2796129441040817</v>
       </c>
       <c r="Q6">
-        <v>0.4551251063498889</v>
+        <v>0.455125106349889</v>
       </c>
       <c r="R6">
-        <v>4.096125957149</v>
+        <v>4.096125957149001</v>
       </c>
       <c r="S6">
-        <v>0.009033651463654596</v>
+        <v>0.009128262866943416</v>
       </c>
       <c r="T6">
-        <v>0.009033651463654592</v>
+        <v>0.009128262866943413</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,13 +844,13 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3351376666666666</v>
+        <v>0.3351376666666667</v>
       </c>
       <c r="H7">
         <v>1.005413</v>
       </c>
       <c r="I7">
-        <v>0.03264606685570878</v>
+        <v>0.03264606685570879</v>
       </c>
       <c r="J7">
         <v>0.03264606685570878</v>
@@ -868,22 +868,22 @@
         <v>9.435901000000001</v>
       </c>
       <c r="O7">
-        <v>0.6408952223802743</v>
+        <v>0.6476074579136527</v>
       </c>
       <c r="P7">
-        <v>0.6408952223802743</v>
+        <v>0.6476074579136526</v>
       </c>
       <c r="Q7">
         <v>1.054108614679222</v>
       </c>
       <c r="R7">
-        <v>9.486977532113</v>
+        <v>9.486977532113002</v>
       </c>
       <c r="S7">
-        <v>0.02092270827733078</v>
+        <v>0.02114183636730472</v>
       </c>
       <c r="T7">
-        <v>0.02092270827733078</v>
+        <v>0.02114183636730472</v>
       </c>
     </row>
   </sheetData>
